--- a/data/明汯多策略对冲1号-净值数据.xlsx
+++ b/data/明汯多策略对冲1号-净值数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3590\Desktop\自动化项目工程文件\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416BD76A-9993-4D85-978F-2F0990298DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEA909B-739C-425F-A6FF-9ED7865CAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="1224" windowWidth="20784" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1116" yWindow="432" windowWidth="20172" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,7 +369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
